--- a/data/outputs/数学期刊(上)_altmetric/27.Annales Mathematiques du Quebec.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/27.Annales Mathematiques du Quebec.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -647,6 +652,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -758,6 +766,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -871,6 +882,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -984,6 +998,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1095,6 +1112,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1208,6 +1228,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1321,6 +1344,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1432,6 +1458,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1543,6 +1572,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1654,6 +1686,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1765,6 +1800,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1876,6 +1914,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1987,6 +2028,9 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>0</v>
       </c>
     </row>
